--- a/biology/Botanique/Verdesse/Verdesse.xlsx
+++ b/biology/Botanique/Verdesse/Verdesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La verdesse est un cépage de cuve blanc, cultivé principalement en  Isère sur les Coteaux-du-grésivaudan et dans le Bugey. Il est autorisé dans le cadre de l'AOC Savoie.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bian ver, Bian vert, Blanchette, Clairette de Chindrieux, Clairette précoce, Dongine, Etraire Blanche, Verdasse, Verdea, Verdêche, Verdesse Muscade, Verdeze musqué et Verdeze musquée.
  Portail de la vigne et du vin   Portail du Bugey   Portail de l’Isère                   </t>
